--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1BCE5F-304F-4E21-9764-99B53527EB3B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35013F6-39E3-4C13-8066-196C9B0EB3A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="页面路径" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,17 +44,6 @@
   </si>
   <si>
     <t>文件下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int id; 成果ID
-File file; 附件文件
-String type; 成果类型 [thesis,textbook,patent,project,reformProject,law]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String filename; 文件名
-(或者直接访问文件下载路径)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,18 +124,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-Long tId; 论文id
-String tName; 论文名称
-String journalName; 发表刊物
-String journalLevel; 刊物级别
-String journalId; 刊号
-String attachment; 附件
-Date publishDate; 发表时间
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,8 +155,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>页面对应目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/thesis/upload.do</t>
+  </si>
+  <si>
+    <t>/patent/upload.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/textbook/upload.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/upload.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reformProject/upload.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/law/upload.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/thesis/upload.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/patent/upload.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/textbook/upload.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/upload.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reformProject/upload.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/law/upload.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文上传页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利上传页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论著上传页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题项目上传页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教改项目上传页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律法规上传页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
-String tId; 论文id
+Long tId; 论文id，必须
+String tName; 论文名称
+String journalName; 发表刊物
+String journalLevel; 刊物级别
+String journalId; 刊号
+String attachment; 附件
+Date publishDate; 发表时间
+String uploader; 上传者用户名，必须
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String filename; 文件名，必须
+(或者直接访问文件下载路径)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int id; 成果ID，必须
+File file; 附件文件，必须
+String type; 成果类型 [thesis,textbook,patent,project,reformProject,law]，必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String tId; 论文id，必须
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,7 +592,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -532,19 +613,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
@@ -555,16 +636,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -572,73 +653,172 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,13 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35013F6-39E3-4C13-8066-196C9B0EB3A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17719AE1-7237-4D57-A108-BBF892895BBD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="页面路径" sheetId="2" r:id="rId2"/>
+    <sheet name="附件" sheetId="1" r:id="rId1"/>
+    <sheet name="所有成果" sheetId="5" r:id="rId2"/>
+    <sheet name="thesis" sheetId="3" r:id="rId3"/>
+    <sheet name="返回结果说明" sheetId="4" r:id="rId4"/>
+    <sheet name="用户" sheetId="6" r:id="rId5"/>
+    <sheet name="页面路径" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +97,6 @@
   </si>
   <si>
     <t>/thesis/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/attachment/get?filename=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -247,11 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String filename; 文件名，必须
-(或者直接访问文件下载路径)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int id; 成果ID，必须
 File file; 附件文件，必须
 String type; 成果类型 [thesis,textbook,patent,project,reformProject,law]，必须</t>
@@ -261,6 +256,232 @@
     <t>{
 String tId; 论文id，必须
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/attachment/get/file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String filename; 文件名，必须
+String account;用户名，必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/attachment/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议不使用异步请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String filename; 必须
+String type 成果类型 [thesis,textbook,patent,project,reformProject,law] 必须
+Long aId; 成果Id  必须
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state 状态[success]
+String msg: [删除成功]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/thesis/getById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Object thesis   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    Long tId; 论文id
+    String tName; 论文名称
+    String journalName; 发表刊物
+    String journalLevel; 刊物级别
+    String journalId; 刊号
+    String attachment; 附件
+    Date publishDate; 发表时间
+    String uploader; 上传者
+    String department 所属部门
+    String subDepartment 所属科室
+    Float score 得分
+    Float maxScore 得分上限
+    Date uploadDate 上次更新时间
+    }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Object thesis
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊物级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+1.《Science》、《Nature》及其子刊《Cell》
+2.SCI收录
+3.EI（JA）、SSCI、A&amp;HCI收录
+4.EI（CA）、CPCI
+5.核心刊物正刊(含北大核心期刊、CSCD、CSSCI、RCCSE)
+6.《武警学院学报》、《消防技术与产品信息》、全国性或行业性学会论文集（一等奖）、国际会议论文集
+7.专业期刊（正刊）、全国性或行业性学会论文集（二等奖）、《消防科学与技术》增刊、《武警学院学报》增刊、《消防技术与产品信息》增刊
+8.一般期刊、其它增刊、其它论文集、校刊
+]    上传时只上传1-8的番号，String类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/thesis/adminGetById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员获取论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/thesis/adminModify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+String msg;[修改成功]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员修改论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object achievement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+Long aId;
+String name;
+String type;
+String uploader;
+Integer state; 成果状态 [-1:驳回,1:未提交,2:待初审,3:待复审,4:已通过]
+Date uploadDate;
+String department;
+String subDepartment;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/getUserList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+List&lt;user&gt; users:用户列表
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+Long id;
+String account;
+String password;
+List&lt;String&gt; roles;
+Date lastPasswordResetDate;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员获取用户账户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/getUserProfileByAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获取个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Object profile 用户信息
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> String account;
+ String name;
+ String position; 职位
+ String title; 职称
+ String positionLevel; 职级
+ String department; 部门
+ String subDepartment; 科室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/getDepartmentList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取部门列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+List&lt;department&gt; dep 部门列表
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String index : 值
+String name : 名称
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String index : 值
+String name : 名称
+List&lt;subDepartment&gt; subDeps科室列表
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object subDepartment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,17 +810,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="4" max="4" width="75.88671875" customWidth="1"/>
     <col min="5" max="5" width="35.88671875" customWidth="1"/>
     <col min="6" max="6" width="26.109375" customWidth="1"/>
     <col min="7" max="7" width="129.109375" customWidth="1"/>
@@ -625,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
@@ -639,10 +860,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -653,73 +874,36 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -730,11 +914,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4988F8C-9371-4417-85C0-C10B0EA7FCEB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2044BB-BE92-44FA-B0EF-53A06E9328D9}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" customWidth="1"/>
+    <col min="5" max="5" width="46.21875" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" customWidth="1"/>
+    <col min="7" max="7" width="63.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FFBA7-01E1-4A4C-A5E1-CB1985BFD5B6}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="91.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="207" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="138" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="69" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C49247-2DA8-4026-8ECD-CB6746899FBD}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -746,79 +1285,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17719AE1-7237-4D57-A108-BBF892895BBD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA0F452-B71A-4560-97BA-6BE56A996125}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,6 +482,41 @@
   </si>
   <si>
     <t>Object subDepartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievement/getListByAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人成果列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievement/getAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员获取成果列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+List&lt;achievement&gt; achievement 成果列表
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员获取相应部门成果列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievement/getListBySubDepartment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,7 +848,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -915,12 +950,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4988F8C-9371-4417-85C0-C10B0EA7FCEB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -931,7 +1051,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1098,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FFBA7-01E1-4A4C-A5E1-CB1985BFD5B6}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1174,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C49247-2DA8-4026-8ECD-CB6746899FBD}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA0F452-B71A-4560-97BA-6BE56A996125}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6431FDE-2E30-4607-B137-3A659448B206}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="128">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,30 +207,6 @@
   </si>
   <si>
     <t>/law/upload.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论文上传页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专利上传页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论著上传页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题项目上传页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教改项目上传页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法律法规上传页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -517,6 +493,166 @@
   </si>
   <si>
     <t>/achievement/getListBySubDepartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/thesis/edit.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/patent/edit.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/textbook/edit.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/edit.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reformProject/edit.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/law/edit.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/thesis/edit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/patent/edit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/textbook/edit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/edit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reformProject/edit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/law/edit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论著编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题项目编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教改项目编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律法规编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文创建页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利创建页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论著创建页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题项目创建页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教改项目创建页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律法规创建页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievement/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long aId; 成果Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户提交当前成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievement/preCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievement/approve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievement/reject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级管理员初审通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级管理员复审通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievement/submitedWithdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievement/preCheckedWithdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievement/approvedWithdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师撤回成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级管理员撤回成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级管理员撤回已通过成果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,7 +984,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -895,7 +1031,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -909,33 +1045,33 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -950,15 +1086,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4988F8C-9371-4417-85C0-C10B0EA7FCEB}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
     <col min="2" max="2" width="30.88671875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -991,16 +1127,16 @@
     </row>
     <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -1008,16 +1144,16 @@
     </row>
     <row r="3" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -1025,18 +1161,158 @@
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1116,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -1139,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -1150,19 +1426,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -1170,19 +1446,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -1190,19 +1466,19 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -1230,58 +1506,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="207" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1332,16 +1608,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -1349,16 +1625,16 @@
     </row>
     <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
@@ -1366,16 +1642,16 @@
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -1390,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1692,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -1427,7 +1703,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -1438,7 +1714,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -1449,7 +1725,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -1460,7 +1736,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -1471,13 +1747,79 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6431FDE-2E30-4607-B137-3A659448B206}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C1A93-F703-437A-9DBE-A0610EC19BFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="131">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,6 +653,18 @@
   </si>
   <si>
     <t>高级管理员撤回已通过成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievement/getListByName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String name; 成果名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员获取同名成果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1086,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4988F8C-9371-4417-85C0-C10B0EA7FCEB}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1109,7 @@
     <col min="1" max="1" width="32.44140625" customWidth="1"/>
     <col min="2" max="2" width="30.88671875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
     <col min="5" max="5" width="24.77734375" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
@@ -1313,6 +1325,26 @@
         <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C1A93-F703-437A-9DBE-A0610EC19BFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCA063B-17F8-47A9-B13A-A62E8041FF11}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="140">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -665,6 +665,42 @@
   </si>
   <si>
     <t>管理员获取同名成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teacher.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin1.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin2.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teacher.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级管理员主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级管理员主页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1100,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4988F8C-9371-4417-85C0-C10B0EA7FCEB}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1698,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1724,133 +1760,166 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>105</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>93</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
         <v>99</v>
       </c>
     </row>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCA063B-17F8-47A9-B13A-A62E8041FF11}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFB2A3B-BD30-43BC-B0F9-3DADC4155317}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -210,19 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-Long tId; 论文id，必须
-String tName; 论文名称
-String journalName; 发表刊物
-String journalLevel; 刊物级别
-String journalId; 刊号
-String attachment; 附件
-Date publishDate; 发表时间
-String uploader; 上传者用户名，必须
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int id; 成果ID，必须
 File file; 附件文件，必须
 String type; 成果类型 [thesis,textbook,patent,project,reformProject,law]，必须</t>
@@ -701,6 +688,18 @@
   </si>
   <si>
     <t>初级管理员主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+Long tId; 论文id，必须
+String tName; 论文名称
+String journalName; 发表刊物
+String journalLevel; 刊物级别
+String journalId; 刊号
+Date publishDate; 发表时间
+String uploader; 上传者用户名，必须
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1079,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -1093,33 +1092,33 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -1175,16 +1174,16 @@
     </row>
     <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -1192,16 +1191,16 @@
     </row>
     <row r="3" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -1209,16 +1208,16 @@
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -1226,16 +1225,16 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
         <v>112</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>113</v>
-      </c>
-      <c r="D5" t="s">
-        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
@@ -1246,16 +1245,16 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
         <v>113</v>
-      </c>
-      <c r="D6" t="s">
-        <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -1266,16 +1265,16 @@
     </row>
     <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
         <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>114</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -1286,16 +1285,16 @@
     </row>
     <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
         <v>113</v>
-      </c>
-      <c r="D8" t="s">
-        <v>114</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -1306,16 +1305,16 @@
     </row>
     <row r="9" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
         <v>113</v>
-      </c>
-      <c r="D9" t="s">
-        <v>114</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
@@ -1326,16 +1325,16 @@
     </row>
     <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
         <v>113</v>
-      </c>
-      <c r="D10" t="s">
-        <v>114</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
@@ -1346,16 +1345,16 @@
     </row>
     <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
         <v>113</v>
-      </c>
-      <c r="D11" t="s">
-        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -1366,19 +1365,19 @@
     </row>
     <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>24</v>
@@ -1394,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2044BB-BE92-44FA-B0EF-53A06E9328D9}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1460,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -1483,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -1494,19 +1493,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -1514,39 +1513,39 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -1574,58 +1573,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="207" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1676,16 +1675,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -1693,16 +1692,16 @@
     </row>
     <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
@@ -1710,16 +1709,16 @@
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -1736,7 +1735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1760,40 +1759,40 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1804,7 +1803,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -1815,7 +1814,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -1826,7 +1825,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -1837,7 +1836,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -1848,7 +1847,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -1859,68 +1858,68 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFB2A3B-BD30-43BC-B0F9-3DADC4155317}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B28964A-7F56-4C27-BC26-44B975F9F6F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -591,10 +591,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户提交当前成果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/achievement/preCheck</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,11 +691,15 @@
 Long tId; 论文id，必须
 String tName; 论文名称
 String journalName; 发表刊物
-String journalLevel; 刊物级别
+int journalLevel; 刊物级别
 String journalId; 刊号
 Date publishDate; 发表时间
 String uploader; 上传者用户名，必须
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户提交送审当前成果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4988F8C-9371-4417-85C0-C10B0EA7FCEB}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>111</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
         <v>112</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
         <v>112</v>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>112</v>
@@ -1305,10 +1305,10 @@
     </row>
     <row r="9" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
         <v>112</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
         <v>112</v>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>84</v>
@@ -1393,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2044BB-BE92-44FA-B0EF-53A06E9328D9}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -1542,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>58</v>
@@ -1554,6 +1554,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1759,35 +1760,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B28964A-7F56-4C27-BC26-44B975F9F6F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B7B2A-C5D9-42BE-8E08-779CFB0BCDAC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
     <sheet name="所有成果" sheetId="5" r:id="rId2"/>
     <sheet name="thesis" sheetId="3" r:id="rId3"/>
-    <sheet name="返回结果说明" sheetId="4" r:id="rId4"/>
-    <sheet name="用户" sheetId="6" r:id="rId5"/>
-    <sheet name="页面路径" sheetId="2" r:id="rId6"/>
+    <sheet name="project" sheetId="7" r:id="rId4"/>
+    <sheet name="返回结果说明" sheetId="4" r:id="rId5"/>
+    <sheet name="用户" sheetId="6" r:id="rId6"/>
+    <sheet name="页面路径" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="156">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,6 +701,73 @@
   </si>
   <si>
     <t>用户提交送审当前成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题项目创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题项目更新上传</t>
+  </si>
+  <si>
+    <t>课题项目删除</t>
+  </si>
+  <si>
+    <t>获取课题项目</t>
+  </si>
+  <si>
+    <t>管理员获取课题项目</t>
+  </si>
+  <si>
+    <t>管理员修改课题项目</t>
+  </si>
+  <si>
+    <t>/project/create</t>
+  </si>
+  <si>
+    <t>/project/upload</t>
+  </si>
+  <si>
+    <t>/project/delete</t>
+  </si>
+  <si>
+    <t>/project/getById</t>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Object project
+}</t>
+  </si>
+  <si>
+    <t>/project/adminGetById</t>
+  </si>
+  <si>
+    <t>/project/adminModify</t>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Long pId:  pId 课题项目id
+}</t>
+  </si>
+  <si>
+    <t>{
+String pId; 课题项目id，必须
+}</t>
+  </si>
+  <si>
+    <t>{
+Long pId; 课题项目id，必须
+String pName; 课题项目名称
+String involvement; 作者参与情况[]
+int level; 级别[]
+String subject; 主体
+int status; 课题状态[]
+Date projectDate; 立项/结题时间
+String uploader; 上传者用户名，必须
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4988F8C-9371-4417-85C0-C10B0EA7FCEB}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1462,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1559,11 +1627,177 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBD9870-DE99-457A-9DE2-32634F77F096}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="62.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FFBA7-01E1-4A4C-A5E1-CB1985BFD5B6}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C49247-2DA8-4026-8ECD-CB6746899FBD}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1732,7 +1966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
   <dimension ref="A1:C16"/>
   <sheetViews>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B7B2A-C5D9-42BE-8E08-779CFB0BCDAC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B7BF9-A792-4ECA-979B-F3A153B70188}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="174">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -768,6 +768,78 @@
 Date projectDate; 立项/结题时间
 String uploader; 上传者用户名，必须
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论著审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题项目审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教改项目审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律法规审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/thesis/exam.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/patent/exam.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/textbook/exam.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/exam.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reformProject/exam.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/law/exam.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/law/exam.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reformProject/exam.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/exam.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/textbook/exam.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/patent/exam.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/thesis/exam.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1630,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBD9870-DE99-457A-9DE2-32634F77F096}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1968,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2157,6 +2229,72 @@
         <v>98</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B7BF9-A792-4ECA-979B-F3A153B70188}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA3ADD5-79C6-48FB-B535-B0438DD39414}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -227,11 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>String filename; 文件名，必须
-String account;用户名，必须</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -840,6 +835,11 @@
   </si>
   <si>
     <t>/thesis/exam.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String filename; 文件名，必须
+String account; 附件上传者用户名，必须</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1238,27 +1238,27 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -1314,16 +1314,16 @@
     </row>
     <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -1331,16 +1331,16 @@
     </row>
     <row r="3" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -1348,16 +1348,16 @@
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>112</v>
-      </c>
-      <c r="D5" t="s">
-        <v>113</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
@@ -1385,16 +1385,16 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
         <v>112</v>
-      </c>
-      <c r="D6" t="s">
-        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -1405,16 +1405,16 @@
     </row>
     <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="s">
         <v>112</v>
-      </c>
-      <c r="D7" t="s">
-        <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -1425,16 +1425,16 @@
     </row>
     <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
         <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>113</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -1445,16 +1445,16 @@
     </row>
     <row r="9" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
         <v>112</v>
-      </c>
-      <c r="D9" t="s">
-        <v>113</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
@@ -1465,16 +1465,16 @@
     </row>
     <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
         <v>112</v>
-      </c>
-      <c r="D10" t="s">
-        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
         <v>112</v>
-      </c>
-      <c r="D11" t="s">
-        <v>113</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -1505,19 +1505,19 @@
     </row>
     <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>24</v>
@@ -1599,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -1633,10 +1633,10 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1645,7 +1645,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1665,7 +1665,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -1673,19 +1673,19 @@
     </row>
     <row r="7" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -1741,16 +1741,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -1758,16 +1758,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -1779,16 +1779,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -1799,19 +1799,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -1819,19 +1819,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -1839,19 +1839,19 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -1880,58 +1880,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="207" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1982,16 +1982,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -1999,16 +1999,16 @@
     </row>
     <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
@@ -2016,16 +2016,16 @@
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -2042,7 +2042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2066,40 +2066,40 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -2165,134 +2165,134 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" t="s">
         <v>167</v>
-      </c>
-      <c r="C22" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA3ADD5-79C6-48FB-B535-B0438DD39414}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368AEA83-443E-4C8F-8B6C-2CD3396AF63A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="176">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -840,6 +840,14 @@
   <si>
     <t>String filename; 文件名，必须
 String account; 附件上传者用户名，必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/attachment/adminDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员删除文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1168,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1261,6 +1269,26 @@
         <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,18 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368AEA83-443E-4C8F-8B6C-2CD3396AF63A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8EC806-E8DE-449C-B9FD-BF118BAD7736}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
     <sheet name="所有成果" sheetId="5" r:id="rId2"/>
     <sheet name="thesis" sheetId="3" r:id="rId3"/>
     <sheet name="project" sheetId="7" r:id="rId4"/>
-    <sheet name="返回结果说明" sheetId="4" r:id="rId5"/>
-    <sheet name="用户" sheetId="6" r:id="rId6"/>
-    <sheet name="页面路径" sheetId="2" r:id="rId7"/>
+    <sheet name="reformProject " sheetId="8" r:id="rId5"/>
+    <sheet name="textbook" sheetId="9" r:id="rId6"/>
+    <sheet name="patent" sheetId="10" r:id="rId7"/>
+    <sheet name="laws" sheetId="11" r:id="rId8"/>
+    <sheet name="返回结果说明" sheetId="4" r:id="rId9"/>
+    <sheet name="用户" sheetId="6" r:id="rId10"/>
+    <sheet name="页面路径" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="252">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,12 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int id; 成果ID，必须
-File file; 附件文件，必须
-String type; 成果类型 [thesis,textbook,patent,project,reformProject,law]，必须</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 String tId; 论文id，必须
 }</t>
@@ -236,14 +234,6 @@
   </si>
   <si>
     <t>建议不使用异步请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-String filename; 必须
-String type 成果类型 [thesis,textbook,patent,project,reformProject,law] 必须
-Long aId; 成果Id  必须
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,10 +249,6 @@
   </si>
   <si>
     <t>获取论文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Object thesis   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -291,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刊物级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[
 1.《Science》、《Nature》及其子刊《Cell》
 2.SCI收录
@@ -753,101 +735,506 @@
 }</t>
   </si>
   <si>
+    <t>论文审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论著审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题项目审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教改项目审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律法规审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/thesis/exam.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/patent/exam.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/textbook/exam.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/exam.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reformProject/exam.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/law/exam.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/law/exam.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reformProject/exam.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/exam.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/textbook/exam.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/patent/exam.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/thesis/exam.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String filename; 文件名，必须
+String account; 附件上传者用户名，必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/attachment/adminDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员删除文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int id; 成果ID，必须
+File file; 附件文件，必须
+String type; 成果类型 [thesis,textbook,patent,project,reformProject,laws]，必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String filename; 必须
+String type 成果类型 [thesis,textbook,patent,project,reformProject,laws] 必须
+Long aId; 成果Id  必须
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/reformProject/create</t>
+  </si>
+  <si>
+    <t>/reformProject/upload</t>
+  </si>
+  <si>
+    <t>/reformProject/delete</t>
+  </si>
+  <si>
+    <t>/reformProject/getById</t>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Object reformProject
+}</t>
+  </si>
+  <si>
+    <t>/reformProject/adminGetById</t>
+  </si>
+  <si>
+    <t>/reformProject/adminModify</t>
+  </si>
+  <si>
+    <t>教改项目创建</t>
+  </si>
+  <si>
+    <t>教改项目更新上传</t>
+  </si>
+  <si>
+    <t>教改项目删除</t>
+  </si>
+  <si>
+    <t>获取教改项目</t>
+  </si>
+  <si>
+    <t>管理员获取教改项目</t>
+  </si>
+  <si>
+    <t>管理员修改教改项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+Long rpId;教改项目id，必须
+ String rpName; 教改项目名称
+ Integer involvement; 作者参与情况
+ Integer status;教改状态[]
+ Date projectDate; 立项/结题时间
+ String uploader;上传者用户名，必须
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Long rpId:  rpId 教改项目id
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String rpId; 教改项目id，必须
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论著成果创建</t>
+  </si>
+  <si>
+    <t>论著成果更新上传</t>
+  </si>
+  <si>
+    <t>论著成果删除</t>
+  </si>
+  <si>
+    <t>获取论著成果</t>
+  </si>
+  <si>
+    <t>管理员获取论著成果</t>
+  </si>
+  <si>
+    <t>管理员修改论著成果</t>
+  </si>
+  <si>
+    <t>/textbook/create</t>
+  </si>
+  <si>
+    <t>/textbook/upload</t>
+  </si>
+  <si>
+    <t>/textbook/delete</t>
+  </si>
+  <si>
+    <t>/textbook/getById</t>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Object textbook
+}</t>
+  </si>
+  <si>
+    <t>/textbook/adminGetById</t>
+  </si>
+  <si>
+    <t>/textbook/adminModify</t>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Long tbId:  tbId 论著成果id
+}</t>
+  </si>
+  <si>
+    <t>{
+String tbId; 论著成果id，必须
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+Long tbId;论著成果id，必须
+ String tbName; 论著成果名称
+ Integer level;论著级别[]
+ Integer involvement; 作者参与情况
+ String publisher; 出版社
+ String ISBN; 书号
+ Date publishDate; 发表时间
+ String uploader;上传者用户名，必须
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/patent/create</t>
+  </si>
+  <si>
+    <t>/patent/upload</t>
+  </si>
+  <si>
+    <t>/patent/delete</t>
+  </si>
+  <si>
+    <t>/patent/getById</t>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Object patent
+}</t>
+  </si>
+  <si>
+    <t>/patent/adminGetById</t>
+  </si>
+  <si>
+    <t>/patent/adminModify</t>
+  </si>
+  <si>
+    <t>专利成果创建</t>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Long paId:  paId 专利成果id
+}</t>
+  </si>
+  <si>
+    <t>专利成果更新上传</t>
+  </si>
+  <si>
+    <t>专利成果删除</t>
+  </si>
+  <si>
+    <t>{
+String paId; 专利成果id，必须
+}</t>
+  </si>
+  <si>
+    <t>获取专利成果</t>
+  </si>
+  <si>
+    <t>管理员获取专利成果</t>
+  </si>
+  <si>
+    <t>管理员修改专利成果</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+Long paId;专利成果id，必须
+ String paName; 专利成果名称
+ Integer type;专利类别[]
+ Integer authorRank; 作者排名
+ String paNum; 专利号
+ String paOwner; 专利持有人
+ Date publishDate; 发表时间
+ String uploader;上传者用户名，必须
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律、法规成果创建</t>
+  </si>
+  <si>
+    <t>法律、法规成果更新上传</t>
+  </si>
+  <si>
+    <t>法律、法规成果删除</t>
+  </si>
+  <si>
+    <t>获取法律、法规成果</t>
+  </si>
+  <si>
+    <t>管理员获取法律、法规成果</t>
+  </si>
+  <si>
+    <t>管理员修改法律、法规成果</t>
+  </si>
+  <si>
+    <t>/laws/create</t>
+  </si>
+  <si>
+    <t>/laws/upload</t>
+  </si>
+  <si>
+    <t>/laws/delete</t>
+  </si>
+  <si>
+    <t>/laws/getById</t>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Object laws
+}</t>
+  </si>
+  <si>
+    <t>/laws/adminGetById</t>
+  </si>
+  <si>
+    <t>/laws/adminModify</t>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Long lId:  lId 法律、法规成果id
+}</t>
+  </si>
+  <si>
+    <t>{
+String lId; 法律、法规成果id，必须
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+Long lId;法律、法规成果id，必须
+ String lName; 法律、法规成果名称
+ String lNum; 法律、法规编号
+ Integer level;法律、法规级别[]
+ Integer involvement; 作者参与情况
+ Integer wordsCount; 字数
+ String uploader; 上传者用户名，必须
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专用名词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object thesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 Long pId; 课题项目id，必须
 String pName; 课题项目名称
-String involvement; 作者参与情况[]
-int level; 级别[]
+String involvement; 作者参与情况[1、组长，2、研究人员]
+int level; 级别[1、国家级，2、省部级，3、市局级，4、校级]
 String subject; 主体
-int status; 课题状态[]
+int status; 课题状态[1、立项在研，2、已结题]
 Date projectDate; 立项/结题时间
 String uploader; 上传者用户名，必须
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>论文审核页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专利审核页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论著审核页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题项目审核页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教改项目审核页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法律法规审核页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/thesis/exam.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/patent/exam.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/textbook/exam.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/project/exam.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/reformProject/exam.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/law/exam.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/law/exam.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/reformProject/exam.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/project/exam.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/textbook/exam.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/patent/exam.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/thesis/exam.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String filename; 文件名，必须
-String account; 附件上传者用户名，必须</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/attachment/adminDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员删除文件</t>
+    <t>{
+Long pId; 课题项目ID
+ Integer involvement; 作者参与情况[1、组长，2、研究人员]
+ String pName; 课题名称
+ Integer level; 级别[1、国家级，2、省部级，3、市局级，4、校级]
+ String subject; 主体
+ Integer status; 状态[1、立项在研，2、已结题]
+ Date projectDate; 立项/结题时间
+ String attachment; 附件
+ String uploader; 上传者
+ Date uploadDate; 上次更新时间
+ Float score; 得分
+ Float maxScore; 最大得分
+ String department; 部门
+ String subDepartment; 科室
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object reformProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ Long rpId; 
+ String rpName;
+ Integer involvement; 作者参与情况[1、组长，2、研究人员]
+ Integer status; 状态[1、立项在研，2、已结题]
+ Date projectDate;  立项/结题时间
+ String attachment;
+ String uploader;
+ Date uploadDate;
+ Float score;
+ Float maxScore;
+ String department;
+ String subDepartment;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object textbook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文刊物级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ Long tbId;
+ String tbName;
+ Integer level; 级别[1、公安消防部队高等专科学校正式出版，2、公安消防部队高等专科学校内部印刷教辅，3、外单位正式出版]
+ Integer involvement; 作者参与情况[1、主编，2、副主编，3、参编]
+ String publisher; 出版社
+ String ISBN; 书号
+ Date publishDate; 出版时间
+ String attachment;
+ String uploader;
+ Date uploadDate;
+ Float score;
+ Float maxScore;
+ String department;
+ String subDepartment;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object patent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ Long paId;
+ String paName;
+ Integer type; 类型[1、发明专利，2、实用新型专利，3、外观专利，4、软件著作权]
+ Integer authorRank;[1,2,3,4,5,其他] （选项其他，value传-1）
+ String paNum;专利号
+ String paOwner;专利持有人
+ Date publishDate;
+ String attachment;
+ String uploader;
+ Date uploadDate;
+ Float score;
+ Float maxScore;
+ String department;
+ String subDepartment;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object laws</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ Long lId;
+ String lName;
+ String lNum; 法律、法规号
+ Integer level; 级别[1、法律、行政法规、国家标准，2、部门规章、行业标准规范，3、地方性法规、政府规章、地方性标准规范]
+ Integer involvement; 作者参与情况[1、主编，2、参编]
+ Integer wordsCount; 
+ String attachment;
+ String uploader;
+ Date uploadDate;
+ Float score;
+ Float maxScore;
+ String department;
+ String subDepartment;
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1178,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1613,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -1240,33 +1627,33 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -1274,22 +1661,384 @@
     </row>
     <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C49247-2DA8-4026-8ECD-CB6746899FBD}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1342,16 +2091,16 @@
     </row>
     <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -1359,16 +2108,16 @@
     </row>
     <row r="3" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -1376,16 +2125,16 @@
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -1393,16 +2142,16 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
@@ -1413,16 +2162,16 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -1433,16 +2182,16 @@
     </row>
     <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -1453,16 +2202,16 @@
     </row>
     <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -1473,16 +2222,16 @@
     </row>
     <row r="9" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
@@ -1493,16 +2242,16 @@
     </row>
     <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
@@ -1513,16 +2262,16 @@
     </row>
     <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -1533,19 +2282,19 @@
     </row>
     <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>24</v>
@@ -1561,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2044BB-BE92-44FA-B0EF-53A06E9328D9}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1627,7 +2376,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -1650,7 +2399,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -1661,19 +2410,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -1681,19 +2430,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -1701,19 +2450,19 @@
     </row>
     <row r="7" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -1730,14 +2479,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBD9870-DE99-457A-9DE2-32634F77F096}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="59.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="62.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A3B6AB-DE03-4B4B-B661-784A3FAAF13F}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
     <col min="4" max="4" width="40.6640625" customWidth="1"/>
     <col min="5" max="5" width="26.5546875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
@@ -1769,33 +2684,33 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -1803,20 +2718,19 @@
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -1827,19 +2741,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -1847,39 +2761,39 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -1892,97 +2806,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FFBA7-01E1-4A4C-A5E1-CB1985BFD5B6}">
-  <dimension ref="A1:B7"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70259064-50DC-49A7-AA29-CA1FDBC6F84D}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="91.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="207" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="165.6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="138" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="69" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C49247-2DA8-4026-8ECD-CB6746899FBD}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2010,53 +2849,119 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2067,260 +2972,161 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86C7356-A727-4AD4-A9CC-4885AD60DFA3}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" t="s">
-        <v>167</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2328,4 +3134,293 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEC4DEB-CABF-46E0-86B1-7BE15D50C071}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="62.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FFBA7-01E1-4A4C-A5E1-CB1985BFD5B6}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="114.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="138" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="69" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="207" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="207" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8EC806-E8DE-449C-B9FD-BF118BAD7736}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17857C69-82E3-47EE-BB31-CE1B13865BCA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/law/upload.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,10 +204,6 @@
   </si>
   <si>
     <t>/reformProject/upload.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/law/upload.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -481,10 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/law/edit.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/thesis/edit.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,10 +490,6 @@
   </si>
   <si>
     <t>/reformProject/edit.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/law/edit.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -776,14 +760,6 @@
   </si>
   <si>
     <t>/reformProject/exam.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/law/exam.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/law/exam.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1235,6 +1211,30 @@
  String department;
  String subDepartment;
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/laws/edit.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/laws/edit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/laws/upload.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/laws/upload.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/laws/exam.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/laws/exam.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1613,7 +1613,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -1627,33 +1627,33 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -1661,19 +1661,19 @@
     </row>
     <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -1728,16 +1728,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -1745,16 +1745,16 @@
     </row>
     <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
@@ -1762,16 +1762,16 @@
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1801,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1812,233 +1812,233 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2091,16 +2091,16 @@
     </row>
     <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -2108,16 +2108,16 @@
     </row>
     <row r="3" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -2125,16 +2125,16 @@
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -2142,16 +2142,16 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
@@ -2162,16 +2162,16 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -2182,16 +2182,16 @@
     </row>
     <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -2202,16 +2202,16 @@
     </row>
     <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -2222,16 +2222,16 @@
     </row>
     <row r="9" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
@@ -2242,16 +2242,16 @@
     </row>
     <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
@@ -2262,16 +2262,16 @@
     </row>
     <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -2282,19 +2282,19 @@
     </row>
     <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>24</v>
@@ -2376,7 +2376,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2399,7 +2399,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -2410,19 +2410,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2430,19 +2430,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -2450,19 +2450,19 @@
     </row>
     <row r="7" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -2518,33 +2518,33 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2556,16 +2556,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -2576,19 +2576,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2596,19 +2596,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -2616,19 +2616,19 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -2684,16 +2684,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -2701,16 +2701,16 @@
     </row>
     <row r="3" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2721,16 +2721,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -2741,19 +2741,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2761,19 +2761,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -2781,19 +2781,19 @@
     </row>
     <row r="7" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -2849,16 +2849,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
         <v>189</v>
-      </c>
-      <c r="B2" t="s">
-        <v>195</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -2866,16 +2866,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" t="s">
         <v>190</v>
-      </c>
-      <c r="B3" t="s">
-        <v>196</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2886,16 +2886,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" t="s">
         <v>191</v>
-      </c>
-      <c r="B4" t="s">
-        <v>197</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -2906,19 +2906,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
         <v>192</v>
-      </c>
-      <c r="B5" t="s">
-        <v>198</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2926,19 +2926,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -2946,19 +2946,19 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -3014,16 +3014,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3031,16 +3031,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3051,16 +3051,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -3071,19 +3071,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -3091,19 +3091,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3111,19 +3111,19 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -3177,18 +3177,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
         <v>221</v>
-      </c>
-      <c r="B2" t="s">
-        <v>227</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3196,16 +3196,16 @@
     </row>
     <row r="3" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
         <v>222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>228</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3216,16 +3216,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
         <v>223</v>
-      </c>
-      <c r="B4" t="s">
-        <v>229</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -3236,19 +3236,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
         <v>224</v>
-      </c>
-      <c r="B5" t="s">
-        <v>230</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -3256,19 +3256,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3276,19 +3276,19 @@
     </row>
     <row r="7" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -3305,7 +3305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FFBA7-01E1-4A4C-A5E1-CB1985BFD5B6}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3317,106 +3317,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="165.6" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="207" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="207" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17857C69-82E3-47EE-BB31-CE1B13865BCA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C596905-C906-497A-A4E4-466861260AA8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="258">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,19 +561,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/achievement/reject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初级管理员初审通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高级管理员复审通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员驳回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1098,25 +1090,6 @@
 int status; 课题状态[1、立项在研，2、已结题]
 Date projectDate; 立项/结题时间
 String uploader; 上传者用户名，必须
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-Long pId; 课题项目ID
- Integer involvement; 作者参与情况[1、组长，2、研究人员]
- String pName; 课题名称
- Integer level; 级别[1、国家级，2、省部级，3、市局级，4、校级]
- String subject; 主体
- Integer status; 状态[1、立项在研，2、已结题]
- Date projectDate; 立项/结题时间
- String attachment; 附件
- String uploader; 上传者
- Date uploadDate; 上次更新时间
- Float score; 得分
- Float maxScore; 最大得分
- String department; 部门
- String subDepartment; 科室
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1235,6 +1208,61 @@
   </si>
   <si>
     <t>/laws/exam.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+Long pId; 课题项目ID
+ Integer involvement; 作者参与情况[1、组长，2、研究人员]
+ String pName; 课题名称
+ Integer level; 级别[1、国家级，2、省部级，3、市局级，4、校级]
+ String subject; 主体[1、公安消防部队高等专科学校，2、外单位]
+ Integer status; 状态[1、立项在研，2、已结题]
+ Date projectDate; 立项/结题时间
+ String attachment; 附件
+ String uploader; 上传者
+ Date uploadDate; 上次更新时间
+ Float score; 得分
+ Float maxScore; 最大得分
+ String department; 部门
+ String subDepartment; 科室
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级管理员驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级管理员驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievement/admin2Reject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievement/admin1Reject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievement/getNextAchievementId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String type;成果类型 可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取下一条成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Long aId;
+String type;
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1613,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -1633,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -1650,7 +1678,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>42</v>
@@ -1661,16 +1689,16 @@
     </row>
     <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>42</v>
@@ -1788,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1812,35 +1840,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,10 +1931,10 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,76 +1997,76 @@
         <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2050,18 +2078,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4988F8C-9371-4417-85C0-C10B0EA7FCEB}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.77734375" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
@@ -2142,7 +2170,7 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
         <v>102</v>
@@ -2162,7 +2190,7 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>105</v>
@@ -2182,7 +2210,7 @@
     </row>
     <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>106</v>
@@ -2202,13 +2230,13 @@
     </row>
     <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>104</v>
@@ -2222,10 +2250,10 @@
     </row>
     <row r="9" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -2242,10 +2270,10 @@
     </row>
     <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
@@ -2262,10 +2290,10 @@
     </row>
     <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
         <v>103</v>
@@ -2280,29 +2308,70 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>117</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2376,7 +2445,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2459,7 +2528,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -2518,16 +2587,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -2535,16 +2604,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2556,16 +2625,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -2576,19 +2645,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2596,19 +2665,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -2616,16 +2685,16 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -2684,16 +2753,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -2701,16 +2770,16 @@
     </row>
     <row r="3" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2721,16 +2790,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -2741,19 +2810,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2761,19 +2830,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -2781,16 +2850,16 @@
     </row>
     <row r="7" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -2849,16 +2918,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -2866,16 +2935,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2886,16 +2955,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -2906,19 +2975,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2926,19 +2995,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -2946,16 +3015,16 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3014,16 +3083,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3031,16 +3100,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3051,16 +3120,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -3071,19 +3140,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -3091,19 +3160,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3111,16 +3180,16 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3179,16 +3248,16 @@
     </row>
     <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3196,16 +3265,16 @@
     </row>
     <row r="3" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3216,16 +3285,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -3236,19 +3305,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -3256,19 +3325,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3276,16 +3345,16 @@
     </row>
     <row r="7" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3305,8 +3374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FFBA7-01E1-4A4C-A5E1-CB1985BFD5B6}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3317,15 +3386,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>47</v>
@@ -3373,7 +3442,7 @@
     </row>
     <row r="8" spans="1:2" ht="207" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>45</v>
@@ -3381,42 +3450,42 @@
     </row>
     <row r="9" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="207" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C596905-C906-497A-A4E4-466861260AA8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564CF637-0033-4177-8859-9831EB926766}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="258">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,10 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取个人成果列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,10 +590,6 @@
   </si>
   <si>
     <t>/achievement/getListByName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String name; 成果名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1263,6 +1255,17 @@
 Long aId;
 String type;
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer start;
+Integer pageSize;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String name; 成果名称
+Integer start;
+Integer pageSize;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1641,7 +1644,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -1661,7 +1664,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -1678,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>42</v>
@@ -1689,16 +1692,16 @@
     </row>
     <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>42</v>
@@ -1840,40 +1843,40 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1884,7 +1887,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -1895,7 +1898,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -1906,7 +1909,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -1917,7 +1920,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -1928,145 +1931,145 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2080,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4988F8C-9371-4417-85C0-C10B0EA7FCEB}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2119,16 +2122,19 @@
     </row>
     <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -2136,16 +2142,19 @@
     </row>
     <row r="3" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -2153,36 +2162,39 @@
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2190,16 +2202,16 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
         <v>103</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -2210,16 +2222,16 @@
     </row>
     <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
         <v>103</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -2230,16 +2242,16 @@
     </row>
     <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -2250,16 +2262,16 @@
     </row>
     <row r="9" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>103</v>
-      </c>
-      <c r="D9" t="s">
-        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
@@ -2270,16 +2282,16 @@
     </row>
     <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
         <v>103</v>
-      </c>
-      <c r="D10" t="s">
-        <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
@@ -2290,16 +2302,16 @@
     </row>
     <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
         <v>103</v>
-      </c>
-      <c r="D11" t="s">
-        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -2310,16 +2322,16 @@
     </row>
     <row r="12" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
         <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>104</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -2328,21 +2340,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
@@ -2350,19 +2362,19 @@
     </row>
     <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>24</v>
@@ -2445,7 +2457,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2528,7 +2540,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -2587,16 +2599,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -2604,16 +2616,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2625,16 +2637,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -2645,19 +2657,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2665,19 +2677,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -2685,16 +2697,16 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -2753,16 +2765,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -2770,16 +2782,16 @@
     </row>
     <row r="3" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2790,16 +2802,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -2810,19 +2822,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2830,19 +2842,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -2850,16 +2862,16 @@
     </row>
     <row r="7" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -2918,16 +2930,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -2935,16 +2947,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2955,16 +2967,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -2975,19 +2987,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2995,19 +3007,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3015,16 +3027,16 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3083,16 +3095,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3100,16 +3112,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3120,16 +3132,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -3140,19 +3152,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -3160,19 +3172,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3180,16 +3192,16 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3248,16 +3260,16 @@
     </row>
     <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3265,16 +3277,16 @@
     </row>
     <row r="3" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3285,16 +3297,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -3305,19 +3317,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -3325,19 +3337,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3345,16 +3357,16 @@
     </row>
     <row r="7" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3386,15 +3398,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>47</v>
@@ -3442,7 +3454,7 @@
     </row>
     <row r="8" spans="1:2" ht="207" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>45</v>
@@ -3450,42 +3462,42 @@
     </row>
     <row r="9" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="207" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564CF637-0033-4177-8859-9831EB926766}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7546D8-EC38-4B8E-9AA1-C6BBC7844C3A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1258,13 +1258,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Integer start;
+    <t>Integer pageNo;
 Integer pageSize;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>String name; 成果名称
-Integer start;
+Integer pageNo;
 Integer pageSize;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2084,7 +2084,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7546D8-EC38-4B8E-9AA1-C6BBC7844C3A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A735E4A-9128-48D9-BEDD-A00DB566F67D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2084,7 +2084,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A735E4A-9128-48D9-BEDD-A00DB566F67D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650D2785-FCD6-4ABF-9EF8-AE57E32AFC62}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="263">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,13 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-String state: 状态[success]
-List&lt;achievement&gt; achievement 成果列表
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理员获取相应部门成果列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1258,14 +1251,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Integer pageNo;
-Integer pageSize;</t>
+    <t>Integer page;
+Integer limit;
+Integer state;
+String type;
+String keyword;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>String name; 成果名称
-Integer pageNo;
-Integer pageSize;</t>
+Integer page;
+Integer limit;
+Integer state;
+String type;
+String keyword;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[0]
+String msg: 信息
+}</t>
+  </si>
+  <si>
+    <t>{
+String state: 状态[0]
+String msg: 信息
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[0]
+String msg: 信息
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[1]
+Integer count;
+String msg;
+List&lt;achievement&gt; data 成果列表
+}</t>
+  </si>
+  <si>
+    <t>{
+String state: 状态[1]
+Integer count;
+String msg;
+List&lt;achievement&gt; data 成果列表
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[1]
+Integer count;
+String msg;
+List&lt;achievement&gt; data 成果列表
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1644,7 +1689,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -1664,7 +1709,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -1681,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>42</v>
@@ -1692,16 +1737,16 @@
     </row>
     <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>42</v>
@@ -1843,40 +1888,40 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1887,7 +1932,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -1898,7 +1943,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -1909,7 +1954,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -1920,7 +1965,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -1931,145 +1976,145 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" t="s">
         <v>243</v>
-      </c>
-      <c r="C10" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" t="s">
         <v>241</v>
-      </c>
-      <c r="C16" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" t="s">
         <v>152</v>
-      </c>
-      <c r="C21" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" t="s">
         <v>245</v>
-      </c>
-      <c r="C22" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2084,7 +2129,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2120,7 +2165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -2131,16 +2176,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -2151,67 +2196,67 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
         <v>101</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -2222,16 +2267,16 @@
     </row>
     <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
         <v>102</v>
-      </c>
-      <c r="D7" t="s">
-        <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -2242,16 +2287,16 @@
     </row>
     <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
         <v>102</v>
-      </c>
-      <c r="D8" t="s">
-        <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -2262,16 +2307,16 @@
     </row>
     <row r="9" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
@@ -2282,16 +2327,16 @@
     </row>
     <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
         <v>102</v>
-      </c>
-      <c r="D10" t="s">
-        <v>103</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
@@ -2302,16 +2347,16 @@
     </row>
     <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
         <v>102</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -2322,16 +2367,16 @@
     </row>
     <row r="12" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
         <v>102</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -2342,16 +2387,16 @@
     </row>
     <row r="13" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
         <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>103</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
@@ -2362,19 +2407,19 @@
     </row>
     <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B14" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>24</v>
@@ -2457,7 +2502,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2540,7 +2585,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -2599,16 +2644,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -2616,16 +2661,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2637,16 +2682,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -2657,19 +2702,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2677,19 +2722,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -2697,16 +2742,16 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -2765,16 +2810,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -2782,16 +2827,16 @@
     </row>
     <row r="3" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2802,16 +2847,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -2822,19 +2867,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -2842,19 +2887,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -2862,16 +2907,16 @@
     </row>
     <row r="7" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -2930,16 +2975,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -2947,16 +2992,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2967,16 +3012,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -2987,19 +3032,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -3007,19 +3052,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3027,16 +3072,16 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3095,16 +3140,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3112,16 +3157,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3132,16 +3177,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -3152,19 +3197,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -3172,19 +3217,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3192,16 +3237,16 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3260,16 +3305,16 @@
     </row>
     <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3277,16 +3322,16 @@
     </row>
     <row r="3" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3297,16 +3342,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -3317,19 +3362,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -3337,19 +3382,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3357,16 +3402,16 @@
     </row>
     <row r="7" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3398,15 +3443,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" t="s">
         <v>227</v>
-      </c>
-      <c r="B1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>47</v>
@@ -3454,7 +3499,7 @@
     </row>
     <row r="8" spans="1:2" ht="207" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>45</v>
@@ -3462,42 +3507,42 @@
     </row>
     <row r="9" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="207" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650D2785-FCD6-4ABF-9EF8-AE57E32AFC62}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F336E43-0993-4E70-89CF-61D50333FEDC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="patent" sheetId="10" r:id="rId7"/>
     <sheet name="laws" sheetId="11" r:id="rId8"/>
     <sheet name="返回结果说明" sheetId="4" r:id="rId9"/>
-    <sheet name="用户" sheetId="6" r:id="rId10"/>
-    <sheet name="页面路径" sheetId="2" r:id="rId11"/>
+    <sheet name="新闻" sheetId="13" r:id="rId10"/>
+    <sheet name="用户" sheetId="6" r:id="rId11"/>
+    <sheet name="页面路径" sheetId="2" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="282">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1066,19 +1067,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-Long pId; 课题项目id，必须
-String pName; 课题项目名称
-String involvement; 作者参与情况[1、组长，2、研究人员]
-int level; 级别[1、国家级，2、省部级，3、市局级，4、校级]
-String subject; 主体
-int status; 课题状态[1、立项在研，2、已结题]
-Date projectDate; 立项/结题时间
-String uploader; 上传者用户名，必须
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Object reformProject</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1310,6 +1298,113 @@
 Integer count;
 String msg;
 List&lt;achievement&gt; data 成果列表
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有新闻均需要admin01权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Long nId；新闻id
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/publish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/withdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long nId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long nId;
+String title;
+String content;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂存新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤回新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/getAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+Long pId; 课题项目id，必须
+String pName; 课题项目名称
+String involvement; 作者参与情况[1、组长，2、研究人员]
+int level; 级别[1、国家级，2、省部级，3、市局级，4、校级]
+int subject; 主体
+int status; 课题状态[1、立项在研，2、已结题]
+Date projectDate; 立项/结题时间
+String uploader; 上传者用户名，必须
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object news</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[1]
+Integer count;
+String msg;
+List&lt;Object news&gt; data 新闻列表
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ Long nId;
+ String title;
+ String content;
+ Date uploadDate;
+ String uploader;
+ Integer state;
+ String uploaderName;
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1763,6 +1858,174 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9C3B36-3AAD-4A83-B140-95607E352EAE}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="27.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C49247-2DA8-4026-8ECD-CB6746899FBD}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1860,7 +2123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -1979,10 +2242,10 @@
         <v>99</v>
       </c>
       <c r="B10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" t="s">
         <v>242</v>
-      </c>
-      <c r="C10" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2045,10 +2308,10 @@
         <v>93</v>
       </c>
       <c r="B16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" t="s">
         <v>240</v>
-      </c>
-      <c r="C16" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2111,10 +2374,10 @@
         <v>146</v>
       </c>
       <c r="B22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" t="s">
         <v>244</v>
-      </c>
-      <c r="C22" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2128,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4988F8C-9371-4417-85C0-C10B0EA7FCEB}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" activeCellId="2" sqref="D3 E3 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2176,13 +2439,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
@@ -2196,13 +2459,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
@@ -2216,13 +2479,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
@@ -2236,13 +2499,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
@@ -2307,10 +2570,10 @@
     </row>
     <row r="9" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -2327,10 +2590,10 @@
     </row>
     <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" t="s">
         <v>101</v>
@@ -2407,19 +2670,19 @@
     </row>
     <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>252</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>24</v>
@@ -2605,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBD9870-DE99-457A-9DE2-32634F77F096}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2670,7 +2933,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2751,7 +3014,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -2772,7 +3035,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3429,10 +3692,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FFBA7-01E1-4A4C-A5E1-CB1985BFD5B6}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3451,7 +3714,7 @@
     </row>
     <row r="2" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>47</v>
@@ -3510,39 +3773,47 @@
         <v>229</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="207" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>239</v>
+    </row>
+    <row r="14" spans="1:2" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F336E43-0993-4E70-89CF-61D50333FEDC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03877990-0713-4D8D-BC95-11168BDF6E9F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,9 @@
     <sheet name="laws" sheetId="11" r:id="rId8"/>
     <sheet name="返回结果说明" sheetId="4" r:id="rId9"/>
     <sheet name="新闻" sheetId="13" r:id="rId10"/>
-    <sheet name="用户" sheetId="6" r:id="rId11"/>
-    <sheet name="页面路径" sheetId="2" r:id="rId12"/>
+    <sheet name="评分" sheetId="14" r:id="rId11"/>
+    <sheet name="用户" sheetId="6" r:id="rId12"/>
+    <sheet name="页面路径" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="295">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1405,6 +1406,72 @@
  String uploader;
  Integer state;
  String uploaderName;
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ranking/individual.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ranking/department.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ranking/individual.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ranking/department.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人评分页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门评分页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人评分结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ranking/individual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date startDate;
+Date endDate;
+String department(可选)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+List&lt;individualRank&gt;；个人排名列表
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object individualRank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ String account;
+ String name;
+ Float score;
+ String department;
+ String subDepartment;
+ Integer rank;
+ List&lt;Achievement&gt; achievementList;
+ Integer count;
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1861,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9C3B36-3AAD-4A83-B140-95607E352EAE}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2026,6 +2093,77 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5CF40B-37B7-437F-ADD2-0F71A60B0918}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C49247-2DA8-4026-8ECD-CB6746899FBD}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -2123,12 +2261,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2378,6 +2516,28 @@
       </c>
       <c r="C22" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3692,10 +3852,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FFBA7-01E1-4A4C-A5E1-CB1985BFD5B6}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3816,6 +3976,14 @@
         <v>281</v>
       </c>
     </row>
+    <row r="15" spans="1:2" ht="138" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03877990-0713-4D8D-BC95-11168BDF6E9F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59173631-1036-417B-BE56-64098C0FD305}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="297">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1473,6 +1473,24 @@
  List&lt;Achievement&gt; achievementList;
  Integer count;
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer page;
+Integer limit;
+Integer state;
+String type;
+String keyword;
+String account(管理员可选)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer page;
+Integer limit;
+Integer state;
+String type;
+String keyword;
+String subDepartment(管理员可选)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2551,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4988F8C-9371-4417-85C0-C10B0EA7FCEB}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" activeCellId="2" sqref="D3 E3 F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2560,7 +2578,7 @@
     <col min="1" max="1" width="32.44140625" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" customWidth="1"/>
     <col min="5" max="5" width="24.77734375" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
@@ -2599,7 +2617,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>260</v>
@@ -2639,7 +2657,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>259</v>
@@ -3854,7 +3872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FFBA7-01E1-4A4C-A5E1-CB1985BFD5B6}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59173631-1036-417B-BE56-64098C0FD305}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CB4243-D863-4862-B74C-8E073BC249D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="303">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1491,6 +1491,30 @@
 String type;
 String keyword;
 String subDepartment(管理员可选)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ranking/individualDetail.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ranking/departmentDetail.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ranking/individualDetail.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ranking/departmentDetail.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人评分详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门评分详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2281,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2558,6 +2582,28 @@
         <v>285</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2569,7 +2615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4988F8C-9371-4417-85C0-C10B0EA7FCEB}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CB4243-D863-4862-B74C-8E073BC249D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EE690E-5771-472A-8FA5-06751E13D0DE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2308,7 +2308,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EE690E-5771-472A-8FA5-06751E13D0DE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A761BF58-5B1A-4AC4-8BD2-0931741B4782}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="308">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1515,6 +1515,29 @@
   </si>
   <si>
     <t>部门评分详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ranking/download/IndividualRank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ranking/download/IndividualDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出个人成果列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出个人评比结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date startDate;
+Date endDate;
+String account;
+String department(可选)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2136,16 +2159,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5CF40B-37B7-437F-ADD2-0F71A60B0918}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="27.21875" customWidth="1"/>
@@ -2196,6 +2219,40 @@
       </c>
       <c r="G2" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2307,7 +2364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A761BF58-5B1A-4AC4-8BD2-0931741B4782}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E2EA72-0982-4438-9EEA-DA12E8126518}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -2161,7 +2161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5CF40B-37B7-437F-ADD2-0F71A60B0918}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2364,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E2EA72-0982-4438-9EEA-DA12E8126518}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578AC82E-37E6-483D-91A8-8D02BB848C24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="311">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1518,14 +1518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/ranking/download/IndividualRank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ranking/download/IndividualDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导出个人成果列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1538,6 +1530,29 @@
 Date endDate;
 String account;
 String department(可选)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ranking/department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ranking/download/individualDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ranking/download/individualRank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取部门评分结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+List&lt;departmentRank&gt;；部门排名列表
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2159,10 +2174,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5CF40B-37B7-437F-ADD2-0F71A60B0918}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2223,10 +2238,10 @@
     </row>
     <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2240,18 +2255,38 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2364,7 +2399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578AC82E-37E6-483D-91A8-8D02BB848C24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4A01F5-EF78-40BA-9AA2-855ADAFA95DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="315">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1552,6 +1552,31 @@
     <t>{
 String state: 状态[success]
 List&lt;departmentRank&gt;；部门排名列表
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievement/getExportList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出成果列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date startDate;可选
+ Date endDate;可选
+ String department; 可选
+ String subDepartment; 可选
+ String type; 可选
+ Integer level; 可选
+ Integer subject; project成果的主体;可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+list&lt;Object&gt;;根据type返回不同类型，如果没有type，则返回achievement
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2009,7 +2034,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2176,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5CF40B-37B7-437F-ADD2-0F71A60B0918}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2705,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4988F8C-9371-4417-85C0-C10B0EA7FCEB}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3001,6 +3026,26 @@
         <v>253</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4A01F5-EF78-40BA-9AA2-855ADAFA95DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AACC31B-2109-4A7D-A987-389EFA6CB0C0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="318">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1578,6 +1578,18 @@
 String state: 状态[success]
 list&lt;Object&gt;;根据type返回不同类型，如果没有type，则返回achievement
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievementExport.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/achievementExport.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成果导出页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2422,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2721,6 +2733,17 @@
         <v>300</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27" t="s">
+        <v>315</v>
+      </c>
+      <c r="C27" t="s">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2732,8 +2755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4988F8C-9371-4417-85C0-C10B0EA7FCEB}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AACC31B-2109-4A7D-A987-389EFA6CB0C0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7898F061-E9A5-4C6C-9EE0-40F22D5CC799}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="321">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1590,6 +1590,21 @@
   </si>
   <si>
     <t>成果导出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Object news: 新闻
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2043,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9C3B36-3AAD-4A83-B140-95607E352EAE}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2190,7 +2205,7 @@
         <v>277</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>254</v>
@@ -2200,6 +2215,26 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7898F061-E9A5-4C6C-9EE0-40F22D5CC799}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8A990B-0AC0-45C5-B674-CADBE178045F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2061,7 +2061,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8A990B-0AC0-45C5-B674-CADBE178045F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB39BDD3-BCBE-41BF-BDFE-0CF6AE3C4B2E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="337">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,13 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-String state: 状态[success]
-List&lt;user&gt; users:用户列表
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Object user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1605,6 +1598,82 @@
 String state: 状态[success]
 Object news: 新闻
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/createUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/updateUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/deleteUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+List&lt;userInfo&gt; users:用户列表
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: success
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员删除用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员创建用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> String account;
+ String password;
+ String username;
+ List&lt;String&gt; roles; 角色列表['ROLE_TEACHER','ROLE_ADMIN_01','ROLE_ADMIN_02']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员更新用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long uId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户列表页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息创建/编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/management.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/edit.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/management.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/edit.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1983,7 +2052,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -2003,7 +2072,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -2020,7 +2089,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>42</v>
@@ -2031,16 +2100,16 @@
     </row>
     <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>42</v>
@@ -2060,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9C3B36-3AAD-4A83-B140-95607E352EAE}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2099,36 +2168,36 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2139,16 +2208,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -2159,16 +2228,16 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
@@ -2179,16 +2248,16 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>269</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>270</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -2199,39 +2268,39 @@
     </row>
     <row r="7" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" t="s">
         <v>276</v>
       </c>
-      <c r="B7" t="s">
-        <v>277</v>
-      </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -2287,39 +2356,39 @@
     </row>
     <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" t="s">
         <v>288</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
@@ -2327,16 +2396,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -2344,19 +2413,19 @@
     </row>
     <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
@@ -2371,10 +2440,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C49247-2DA8-4026-8ECD-CB6746899FBD}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2411,7 +2480,7 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -2420,7 +2489,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>324</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -2428,16 +2497,16 @@
     </row>
     <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
@@ -2445,18 +2514,78 @@
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2469,10 +2598,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2495,40 +2624,40 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -2539,7 +2668,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -2550,7 +2679,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -2561,7 +2690,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -2572,7 +2701,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -2583,200 +2712,222 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" t="s">
         <v>241</v>
-      </c>
-      <c r="C10" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" t="s">
         <v>239</v>
-      </c>
-      <c r="C16" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
         <v>151</v>
-      </c>
-      <c r="C21" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" t="s">
         <v>243</v>
-      </c>
-      <c r="C22" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B27" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" t="s">
         <v>315</v>
       </c>
-      <c r="C27" t="s">
-        <v>316</v>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>331</v>
+      </c>
+      <c r="B28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>332</v>
+      </c>
+      <c r="B29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2829,96 +2980,96 @@
     </row>
     <row r="2" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>101</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -2929,16 +3080,16 @@
     </row>
     <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -2949,16 +3100,16 @@
     </row>
     <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
         <v>101</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -2969,16 +3120,16 @@
     </row>
     <row r="9" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
@@ -2989,16 +3140,16 @@
     </row>
     <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
         <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>102</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
@@ -3009,16 +3160,16 @@
     </row>
     <row r="11" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
         <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -3029,16 +3180,16 @@
     </row>
     <row r="12" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
         <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -3049,16 +3200,16 @@
     </row>
     <row r="13" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
         <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
@@ -3069,19 +3220,19 @@
     </row>
     <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B14" t="s">
-        <v>250</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>251</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>24</v>
@@ -3089,19 +3240,19 @@
     </row>
     <row r="15" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B15" t="s">
-        <v>311</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -3184,7 +3335,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3267,7 +3418,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3326,16 +3477,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3343,16 +3494,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3364,16 +3515,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -3384,19 +3535,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -3404,19 +3555,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3424,16 +3575,16 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3492,16 +3643,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3509,16 +3660,16 @@
     </row>
     <row r="3" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3529,16 +3680,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -3549,19 +3700,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -3569,19 +3720,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3589,16 +3740,16 @@
     </row>
     <row r="7" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3657,16 +3808,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3674,16 +3825,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3694,16 +3845,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -3714,19 +3865,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -3734,19 +3885,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3754,16 +3905,16 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3822,16 +3973,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3839,16 +3990,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3859,16 +4010,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -3879,19 +4030,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -3899,19 +4050,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3919,16 +4070,16 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3987,16 +4138,16 @@
     </row>
     <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -4004,16 +4155,16 @@
     </row>
     <row r="3" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -4024,16 +4175,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -4044,19 +4195,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -4064,19 +4215,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -4084,16 +4235,16 @@
     </row>
     <row r="7" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -4114,7 +4265,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4125,15 +4276,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
         <v>226</v>
-      </c>
-      <c r="B1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>47</v>
@@ -4149,39 +4300,39 @@
     </row>
     <row r="4" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="207" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>45</v>
@@ -4189,58 +4340,58 @@
     </row>
     <row r="9" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="207" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="138" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB39BDD3-BCBE-41BF-BDFE-0CF6AE3C4B2E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6251B8-C2A8-4DD1-B30C-CA8F881090FA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <sheet name="textbook" sheetId="9" r:id="rId6"/>
     <sheet name="patent" sheetId="10" r:id="rId7"/>
     <sheet name="laws" sheetId="11" r:id="rId8"/>
-    <sheet name="返回结果说明" sheetId="4" r:id="rId9"/>
-    <sheet name="新闻" sheetId="13" r:id="rId10"/>
-    <sheet name="评分" sheetId="14" r:id="rId11"/>
-    <sheet name="用户" sheetId="6" r:id="rId12"/>
-    <sheet name="页面路径" sheetId="2" r:id="rId13"/>
+    <sheet name="researchActivity" sheetId="15" r:id="rId9"/>
+    <sheet name="返回结果说明" sheetId="4" r:id="rId10"/>
+    <sheet name="新闻" sheetId="13" r:id="rId11"/>
+    <sheet name="评分" sheetId="14" r:id="rId12"/>
+    <sheet name="用户" sheetId="6" r:id="rId13"/>
+    <sheet name="页面路径" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="375">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -768,20 +769,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int id; 成果ID，必须
-File file; 附件文件，必须
-String type; 成果类型 [thesis,textbook,patent,project,reformProject,laws]，必须</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-String filename; 必须
-String type 成果类型 [thesis,textbook,patent,project,reformProject,laws] 必须
-Long aId; 成果Id  必须
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/reformProject/create</t>
   </si>
   <si>
@@ -1674,6 +1661,192 @@
   </si>
   <si>
     <t>/user/edit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研活动创建页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研活动审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研活动编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/upload.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/edit.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/publish.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/upload.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/edit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/publish.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/getListByAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/getById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/adminGetById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/adminModify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/getAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/publish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/reject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/submitedWithdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int id; 成果ID，必须
+File file; 附件文件，必须
+String type; 成果类型 [thesis,textbook,patent,project,reformProject,laws,researchActivity]，必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String filename; 必须
+String type 成果类型 [thesis,textbook,patent,project,reformProject,laws,researchActivity] 必须
+Long aId; 成果Id  必须
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Long actId:  调研活动id
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建调研活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传/更新调研活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除调研活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户调研活动列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取调研活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员获取调研活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员修改调研活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员获取调研活动列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户撤回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ Long actId;
+ String groupName; 调研组
+ String context;调研内容
+ String members;调研人员
+ String personTimes;人次
+ Date startDate; 起始时间
+ Date endDate; 结束时间
+ String location; 地点
+ String comments; 备注
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long actId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer page;
+Integer limit;
+Integer state;
+String keyword;
+String account(管理员可选)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code:
+msg;
+count;
+data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2005,7 +2178,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2225,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>356</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -2078,7 +2251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -2089,7 +2262,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>160</v>
+        <v>357</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>42</v>
@@ -2098,7 +2271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -2109,7 +2282,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>357</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>42</v>
@@ -2126,6 +2299,146 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FFBA7-01E1-4A4C-A5E1-CB1985BFD5B6}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="114.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="138" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="69" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="207" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="207" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="138" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9C3B36-3AAD-4A83-B140-95607E352EAE}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2168,36 +2481,36 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2208,16 +2521,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -2228,16 +2541,16 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>267</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>269</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
@@ -2248,16 +2561,16 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -2268,39 +2581,39 @@
     </row>
     <row r="7" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="D8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -2313,7 +2626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5CF40B-37B7-437F-ADD2-0F71A60B0918}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2356,39 +2669,39 @@
     </row>
     <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
@@ -2396,16 +2709,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -2413,19 +2726,19 @@
     </row>
     <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
@@ -2438,7 +2751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C49247-2DA8-4026-8ECD-CB6746899FBD}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -2489,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -2531,19 +2844,19 @@
     </row>
     <row r="5" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
@@ -2551,19 +2864,19 @@
     </row>
     <row r="6" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>
@@ -2571,19 +2884,19 @@
     </row>
     <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" t="s">
-        <v>330</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>20</v>
@@ -2596,12 +2909,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2715,10 +3028,10 @@
         <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,10 +3094,10 @@
         <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,87 +3160,120 @@
         <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" t="s">
         <v>281</v>
-      </c>
-      <c r="C23" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" t="s">
         <v>282</v>
-      </c>
-      <c r="C24" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" t="s">
         <v>296</v>
-      </c>
-      <c r="C25" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" t="s">
         <v>297</v>
-      </c>
-      <c r="C26" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" t="s">
         <v>331</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>333</v>
-      </c>
-      <c r="C28" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" t="s">
         <v>332</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>334</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" t="s">
+        <v>338</v>
+      </c>
+      <c r="C30" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>337</v>
+      </c>
+      <c r="B31" t="s">
+        <v>339</v>
+      </c>
+      <c r="C31" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>336</v>
+      </c>
+      <c r="B32" t="s">
+        <v>340</v>
+      </c>
+      <c r="C32" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2941,8 +3287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4988F8C-9371-4417-85C0-C10B0EA7FCEB}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2989,13 +3335,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
@@ -3009,13 +3355,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
@@ -3029,13 +3375,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
@@ -3049,13 +3395,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
@@ -3120,10 +3466,10 @@
     </row>
     <row r="9" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" t="s">
         <v>245</v>
-      </c>
-      <c r="B9" t="s">
-        <v>247</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -3140,10 +3486,10 @@
     </row>
     <row r="10" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
         <v>246</v>
-      </c>
-      <c r="B10" t="s">
-        <v>248</v>
       </c>
       <c r="C10" t="s">
         <v>100</v>
@@ -3220,19 +3566,19 @@
     </row>
     <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>24</v>
@@ -3240,19 +3586,19 @@
     </row>
     <row r="15" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -3503,7 +3849,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3584,7 +3930,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3643,16 +3989,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3660,16 +4006,16 @@
     </row>
     <row r="3" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3680,16 +4026,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -3700,19 +4046,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -3720,19 +4066,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3740,16 +4086,16 @@
     </row>
     <row r="7" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3808,16 +4154,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3825,16 +4171,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -3845,16 +4191,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -3865,19 +4211,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -3885,19 +4231,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -3905,16 +4251,16 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -3973,16 +4319,16 @@
     </row>
     <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -3990,16 +4336,16 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -4010,16 +4356,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -4030,19 +4376,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -4050,19 +4396,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -4070,16 +4416,16 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -4099,8 +4445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEC4DEB-CABF-46E0-86B1-7BE15D50C071}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4138,16 +4484,16 @@
     </row>
     <row r="2" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -4155,16 +4501,16 @@
     </row>
     <row r="3" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -4175,16 +4521,16 @@
     </row>
     <row r="4" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
@@ -4195,19 +4541,19 @@
     </row>
     <row r="5" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -4215,19 +4561,19 @@
     </row>
     <row r="6" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -4235,16 +4581,16 @@
     </row>
     <row r="7" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -4261,141 +4607,283 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FFBA7-01E1-4A4C-A5E1-CB1985BFD5B6}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779A9797-4026-4CA9-A5E1-929C963F802F}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="114.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="138" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="B3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="69" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="B5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="207" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="B7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="B8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="193.2" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="B9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="B10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="220.8" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="207" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="B12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="138" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>292</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>293</v>
+        <v>370</v>
+      </c>
+      <c r="B13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6251B8-C2A8-4DD1-B30C-CA8F881090FA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BD300D-D8CB-4970-BE44-6B917270CE38}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="376">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1847,6 +1847,10 @@
 msg;
 count;
 data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/getUserById</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2753,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C49247-2DA8-4026-8ECD-CB6746899FBD}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2899,6 +2903,26 @@
         <v>323</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4446,7 +4470,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4610,7 +4634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779A9797-4026-4CA9-A5E1-929C963F802F}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BD300D-D8CB-4970-BE44-6B917270CE38}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF04B5C2-8A8B-474B-AF2A-E7522E9742DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="378">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1851,6 +1851,14 @@
   </si>
   <si>
     <t>/user/getUserById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/publishedWithdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员撤回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2759,7 +2767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C49247-2DA8-4026-8ECD-CB6746899FBD}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4632,10 +4640,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779A9797-4026-4CA9-A5E1-929C963F802F}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4905,6 +4913,26 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF04B5C2-8A8B-474B-AF2A-E7522E9742DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78C9A62-DB5C-44E0-A564-9E834B932A28}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,13 @@
     <sheet name="textbook" sheetId="9" r:id="rId6"/>
     <sheet name="patent" sheetId="10" r:id="rId7"/>
     <sheet name="laws" sheetId="11" r:id="rId8"/>
-    <sheet name="researchActivity" sheetId="15" r:id="rId9"/>
-    <sheet name="返回结果说明" sheetId="4" r:id="rId10"/>
-    <sheet name="新闻" sheetId="13" r:id="rId11"/>
-    <sheet name="评分" sheetId="14" r:id="rId12"/>
-    <sheet name="用户" sheetId="6" r:id="rId13"/>
-    <sheet name="页面路径" sheetId="2" r:id="rId14"/>
+    <sheet name="otherActivity" sheetId="16" r:id="rId9"/>
+    <sheet name="researchActivity" sheetId="15" r:id="rId10"/>
+    <sheet name="返回结果说明" sheetId="4" r:id="rId11"/>
+    <sheet name="新闻" sheetId="13" r:id="rId12"/>
+    <sheet name="评分" sheetId="14" r:id="rId13"/>
+    <sheet name="用户" sheetId="6" r:id="rId14"/>
+    <sheet name="页面路径" sheetId="2" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="418">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1859,6 +1860,175 @@
   </si>
   <si>
     <t>管理员撤回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研活动导出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/export.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/export.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他活动创建页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他活动编辑页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他活动审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他活动导出页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/otherActivity/upload.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/otherActivity/edit.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/otherActivity/publish.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/otherActivity/export.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/otherActivity/upload.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/otherActivity/edit.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/otherActivity/publish.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/otherActivity/export.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/otherActivity/create</t>
+  </si>
+  <si>
+    <t>/otherActivity/upload</t>
+  </si>
+  <si>
+    <t>/otherActivity/delete</t>
+  </si>
+  <si>
+    <t>/otherActivity/getListByAccount</t>
+  </si>
+  <si>
+    <t>/otherActivity/getById</t>
+  </si>
+  <si>
+    <t>/otherActivity/adminGetById</t>
+  </si>
+  <si>
+    <t>/otherActivity/adminModify</t>
+  </si>
+  <si>
+    <t>/otherActivity/getAll</t>
+  </si>
+  <si>
+    <t>/otherActivity/submit</t>
+  </si>
+  <si>
+    <t>/otherActivity/publish</t>
+  </si>
+  <si>
+    <t>/otherActivity/reject</t>
+  </si>
+  <si>
+    <t>/otherActivity/submitedWithdraw</t>
+  </si>
+  <si>
+    <t>/otherActivity/publishedWithdraw</t>
+  </si>
+  <si>
+    <t>新建其他活动</t>
+  </si>
+  <si>
+    <t>{
+String state: 状态[success]
+Long actId:  其他活动id
+}</t>
+  </si>
+  <si>
+    <t>上传/更新其他活动</t>
+  </si>
+  <si>
+    <t>{
+ Long actId;
+ String groupName; 其他组
+ String context;其他内容
+ String members;其他人员
+ String personTimes;人次
+ Date startDate; 起始时间
+ Date endDate; 结束时间
+ String location; 地点
+ String comments; 备注
+}</t>
+  </si>
+  <si>
+    <t>删除其他活动</t>
+  </si>
+  <si>
+    <t>获取用户其他活动列表</t>
+  </si>
+  <si>
+    <t>获取其他活动</t>
+  </si>
+  <si>
+    <t>管理员获取其他活动</t>
+  </si>
+  <si>
+    <t>管理员修改其他活动</t>
+  </si>
+  <si>
+    <t>管理员获取其他活动列表</t>
+  </si>
+  <si>
+    <t>{
+ Long actId;
+ String groupName; 调研组
+ String context;调研内容
+ String members;调研人员
+ Integer personTimes;人次
+ Date startDate; 起始时间
+ Date endDate; 结束时间
+ String location; 地点
+ String comments; 备注
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ Long actId;
+ String name; 活动名
+ String result;主要成果
+ String members; 参与人员
+ String host;主办方
+ Date startDate; 起始时间
+ Date endDate; 结束时间
+ String location; 地点
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2311,6 +2481,308 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779A9797-4026-4CA9-A5E1-929C963F802F}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49FFBA7-01E1-4A4C-A5E1-CB1985BFD5B6}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -2450,7 +2922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9C3B36-3AAD-4A83-B140-95607E352EAE}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2638,7 +3110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5CF40B-37B7-437F-ADD2-0F71A60B0918}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2763,7 +3235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C49247-2DA8-4026-8ECD-CB6746899FBD}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2941,12 +3413,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3B0C62-D735-4A6F-BED9-481146799F0C}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3306,6 +3778,61 @@
       </c>
       <c r="C32" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B33" t="s">
+        <v>379</v>
+      </c>
+      <c r="C33" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>381</v>
+      </c>
+      <c r="B34" t="s">
+        <v>385</v>
+      </c>
+      <c r="C34" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>382</v>
+      </c>
+      <c r="B35" t="s">
+        <v>386</v>
+      </c>
+      <c r="C35" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>383</v>
+      </c>
+      <c r="B36" t="s">
+        <v>387</v>
+      </c>
+      <c r="C36" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>384</v>
+      </c>
+      <c r="B37" t="s">
+        <v>388</v>
+      </c>
+      <c r="C37" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4639,11 +5166,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779A9797-4026-4CA9-A5E1-929C963F802F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9EF250-249E-4934-817A-3EDD97D2793E}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4681,33 +5208,33 @@
     </row>
     <row r="2" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -4718,10 +5245,10 @@
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -4738,10 +5265,10 @@
     </row>
     <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -4758,10 +5285,10 @@
     </row>
     <row r="6" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -4770,18 +5297,18 @@
         <v>372</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -4790,24 +5317,24 @@
         <v>372</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -4818,10 +5345,10 @@
     </row>
     <row r="9" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -4838,7 +5365,7 @@
         <v>367</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -4858,7 +5385,7 @@
         <v>368</v>
       </c>
       <c r="B11" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -4878,7 +5405,7 @@
         <v>369</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -4898,7 +5425,7 @@
         <v>370</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -4918,7 +5445,7 @@
         <v>377</v>
       </c>
       <c r="B14" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78C9A62-DB5C-44E0-A564-9E834B932A28}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47852911-FDD7-4152-89D4-08CD96905C93}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="421">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1959,9 +1959,6 @@
     <t>/otherActivity/submitedWithdraw</t>
   </si>
   <si>
-    <t>/otherActivity/publishedWithdraw</t>
-  </si>
-  <si>
     <t>新建其他活动</t>
   </si>
   <si>
@@ -2029,6 +2026,22 @@
  Date endDate; 结束时间
  String location; 地点
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/researchActivity/getPublished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取已发布的活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/otherActivity/publishedWithdraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/otherActivity/getPublished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2482,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779A9797-4026-4CA9-A5E1-929C963F802F}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2549,7 +2562,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2668,6 +2681,9 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>374</v>
       </c>
@@ -2772,6 +2788,26 @@
         <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B15" t="s">
+        <v>417</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3418,7 +3454,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5167,10 +5203,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9EF250-249E-4934-817A-3EDD97D2793E}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5208,7 +5244,7 @@
     </row>
     <row r="2" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
         <v>393</v>
@@ -5217,7 +5253,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -5225,7 +5261,7 @@
     </row>
     <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
         <v>394</v>
@@ -5234,7 +5270,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -5245,7 +5281,7 @@
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>395</v>
@@ -5265,7 +5301,7 @@
     </row>
     <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>396</v>
@@ -5285,7 +5321,7 @@
     </row>
     <row r="6" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
         <v>397</v>
@@ -5297,7 +5333,7 @@
         <v>372</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -5305,7 +5341,7 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>398</v>
@@ -5317,7 +5353,7 @@
         <v>372</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -5325,7 +5361,7 @@
     </row>
     <row r="8" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>399</v>
@@ -5334,7 +5370,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -5345,7 +5381,7 @@
     </row>
     <row r="9" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>400</v>
@@ -5445,7 +5481,7 @@
         <v>377</v>
       </c>
       <c r="B14" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -5457,6 +5493,26 @@
         <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B15" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47852911-FDD7-4152-89D4-08CD96905C93}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6998A7D9-5AF5-4F28-8C4B-8DC62E1DF89E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="420">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1969,19 +1969,6 @@
   </si>
   <si>
     <t>上传/更新其他活动</t>
-  </si>
-  <si>
-    <t>{
- Long actId;
- String groupName; 其他组
- String context;其他内容
- String members;其他人员
- String personTimes;人次
- Date startDate; 起始时间
- Date endDate; 结束时间
- String location; 地点
- String comments; 备注
-}</t>
   </si>
   <si>
     <t>删除其他活动</t>
@@ -2562,7 +2549,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -2793,10 +2780,10 @@
     </row>
     <row r="15" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -5206,7 +5193,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5270,7 +5257,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -5281,7 +5268,7 @@
     </row>
     <row r="4" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
         <v>395</v>
@@ -5301,7 +5288,7 @@
     </row>
     <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s">
         <v>396</v>
@@ -5319,9 +5306,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s">
         <v>397</v>
@@ -5333,7 +5320,7 @@
         <v>372</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -5341,7 +5328,7 @@
     </row>
     <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s">
         <v>398</v>
@@ -5353,7 +5340,7 @@
         <v>372</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -5361,7 +5348,7 @@
     </row>
     <row r="8" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
         <v>399</v>
@@ -5370,7 +5357,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -5381,7 +5368,7 @@
     </row>
     <row r="9" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
         <v>400</v>
@@ -5481,7 +5468,7 @@
         <v>377</v>
       </c>
       <c r="B14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -5498,10 +5485,10 @@
     </row>
     <row r="15" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>

--- a/webAPI.xlsx
+++ b/webAPI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6998A7D9-5AF5-4F28-8C4B-8DC62E1DF89E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC43D66-2EE9-492D-9E88-95D05E780F0D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="619" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="421">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2029,6 +2029,19 @@
   </si>
   <si>
     <t>/otherActivity/getPublished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ Long actId;
+ String name; 活动名
+ String results;主要成果
+ String members; 参与人员
+ String host;主办方
+ Date startDate; 起始时间
+ Date endDate; 结束时间
+ String location; 地点
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5192,8 +5205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9EF250-249E-4934-817A-3EDD97D2793E}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5257,7 +5270,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -5340,7 +5353,7 @@
         <v>372</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -5357,7 +5370,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
